--- a/data/income_statement/3digits/total/532_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/532_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>532-Other postal and courier activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>532-Other postal and courier activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>2485049.06344</v>
@@ -962,31 +868,36 @@
         <v>3942941.53164</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>4470683.97314</v>
+        <v>4495232.737029999</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>4999009.98942</v>
+        <v>4999047.17165</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>5592152.819929999</v>
+        <v>5599098.340220001</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>5930897.70429</v>
+        <v>5937242.94086</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>6932106.94123</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>8400489.461409999</v>
+        <v>8410310.02203</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>10205373.64236</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>10247985.49246</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>15128328.94</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>1853091.39961</v>
@@ -1001,34 +912,39 @@
         <v>3119513.75863</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>3535980.5373</v>
+        <v>3549971.26642</v>
       </c>
       <c r="H6" s="48" t="n">
         <v>3853554.7619</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>4296352.96445</v>
+        <v>4302510.42776</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>4474125.93009</v>
+        <v>4480471.16666</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>5083425.189269999</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>5791380.43261</v>
+        <v>5797776.63209</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>6896684.332610001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>6929992.53849</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>10851329.874</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>555455.0802600001</v>
+        <v>555455.08026</v>
       </c>
       <c r="D7" s="48" t="n">
         <v>548147.82336</v>
@@ -1040,13 +956,13 @@
         <v>723139.9015</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>854467.14988</v>
+        <v>864974.9704599999</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>1070159.2325</v>
+        <v>1070196.41473</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>1264650.16524</v>
+        <v>1265272.05872</v>
       </c>
       <c r="J7" s="48" t="n">
         <v>1418342.38635</v>
@@ -1055,19 +971,24 @@
         <v>1753666.69735</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>2530778.71417</v>
+        <v>2534132.15951</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>3220229.242649999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>3229375.18926</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>4130996.21</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>76502.58357</v>
+        <v>76502.58356999999</v>
       </c>
       <c r="D8" s="48" t="n">
         <v>77435.57359999999</v>
@@ -1079,31 +1000,36 @@
         <v>100287.87151</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>80236.28595999999</v>
+        <v>80286.50015000001</v>
       </c>
       <c r="H8" s="48" t="n">
         <v>75295.99502</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>31149.69024</v>
+        <v>31315.85374</v>
       </c>
       <c r="J8" s="48" t="n">
         <v>38429.38785</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>95015.05461000002</v>
+        <v>95015.05461000001</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>78330.31462999999</v>
+        <v>78401.23043</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>88460.0671</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>88617.76470999999</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>146002.856</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>19763.45157</v>
@@ -1118,13 +1044,13 @@
         <v>17120.2489</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>40600.65527</v>
+        <v>40707.53128</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>40682.16732000001</v>
+        <v>40682.16732</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>53046.50285</v>
+        <v>53047.53415000001</v>
       </c>
       <c r="J9" s="47" t="n">
         <v>60909.07702</v>
@@ -1133,16 +1059,21 @@
         <v>83819.76401</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>169921.98539</v>
+        <v>169922.25039</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>171812.64777</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>171825.93469</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>266474.082</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>13628.51101</v>
@@ -1157,13 +1088,13 @@
         <v>10541.95488</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>29333.05247</v>
+        <v>29439.92848</v>
       </c>
       <c r="H10" s="48" t="n">
         <v>26757.00768</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>41854.38821</v>
+        <v>41855.41951</v>
       </c>
       <c r="J10" s="48" t="n">
         <v>49472.04495</v>
@@ -1172,16 +1103,21 @@
         <v>52858.33009999999</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>60837.40648000001</v>
+        <v>60837.67148</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>73482.42402000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>73495.71094</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>93064.58500000001</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>5482.988429999999</v>
@@ -1193,10 +1129,10 @@
         <v>5501.89374</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>5313.34488</v>
+        <v>5313.344880000001</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>8926.857910000001</v>
+        <v>8926.857909999999</v>
       </c>
       <c r="H11" s="48" t="n">
         <v>10919.05591</v>
@@ -1205,7 +1141,7 @@
         <v>8817.796309999998</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>8930.034009999999</v>
+        <v>8930.034009999998</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>29029.48925</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>94608.13428</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>170427.696</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>651.95213</v>
@@ -1255,11 +1196,16 @@
       <c r="M12" s="48" t="n">
         <v>3722.08947</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>2981.801</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>2465285.61187</v>
@@ -1274,31 +1220,36 @@
         <v>3925821.28274</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>4430083.317869999</v>
+        <v>4454525.20575</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>4958327.8221</v>
+        <v>4958365.00433</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>5539106.31708</v>
+        <v>5546050.80607</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>5869988.62727</v>
+        <v>5876333.86384</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>6848287.177219999</v>
+        <v>6848287.17722</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>8230567.476020001</v>
+        <v>8240387.77164</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>10033560.99459</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>10076159.55777</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>14861854.858</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>1833284.14801</v>
@@ -1313,31 +1264,36 @@
         <v>3154073.18229</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>3548475.4448</v>
+        <v>3569903.8003</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>4033282.82401</v>
+        <v>4033282.86575</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>4461416.5729</v>
+        <v>4467976.800059999</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>4868750.14008</v>
+        <v>4873355.08225</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>5560009.25406</v>
+        <v>5560009.254059999</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>6889187.118799999</v>
+        <v>6897380.32364</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>8527505.89807</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>8563668.431809999</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>12592819.716</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>893.67833</v>
@@ -1358,10 +1314,10 @@
         <v>3433.43219</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>24692.11652</v>
+        <v>25535.06266</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>6592.194030000001</v>
+        <v>6592.19403</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>9188.54515</v>
@@ -1372,11 +1328,16 @@
       <c r="M15" s="48" t="n">
         <v>22568.6761</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="48" t="n">
+        <v>8435.075000000001</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>163394.81422</v>
@@ -1385,7 +1346,7 @@
         <v>157215.9987</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>171553.5445400001</v>
+        <v>171553.54454</v>
       </c>
       <c r="F16" s="48" t="n">
         <v>261506.65461</v>
@@ -1394,10 +1355,10 @@
         <v>273851.97452</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>279415.51289</v>
+        <v>279415.55463</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>284567.2446499999</v>
+        <v>285243.13217</v>
       </c>
       <c r="J16" s="48" t="n">
         <v>198148.64018</v>
@@ -1406,16 +1367,21 @@
         <v>204932.30693</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>246023.64265</v>
+        <v>249244.73206</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>315405.73395</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>325834.19898</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>361838.487</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>1668572.49892</v>
@@ -1430,31 +1396,36 @@
         <v>2874166.99544</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>3271374.4888</v>
+        <v>3292802.8443</v>
       </c>
       <c r="H17" s="48" t="n">
         <v>3719434.61251</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>4147791.92143</v>
+        <v>4152833.31493</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>4661037.39022</v>
+        <v>4665642.332389999</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>5343895.289</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>6627323.76584</v>
+        <v>6632295.881270001</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>8186347.477449999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>8212056.546159999</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>12208162.144</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>423.15654</v>
@@ -1475,7 +1446,7 @@
         <v>30999.26642</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>4365.2903</v>
+        <v>4365.290300000001</v>
       </c>
       <c r="J18" s="48" t="n">
         <v>2971.91565</v>
@@ -1487,13 +1458,18 @@
         <v>2028.96868</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>3184.01057</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>3209.01057</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>14384.01</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>632001.4638599999</v>
@@ -1508,34 +1484,39 @@
         <v>771748.10045</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>881607.8730700001</v>
+        <v>884621.4054500001</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>925044.9980899999</v>
+        <v>925082.1385799999</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>1077689.74418</v>
+        <v>1078074.00601</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>1001238.48719</v>
+        <v>1002978.78159</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>1288277.92316</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1341380.35722</v>
+        <v>1343007.448</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1506055.09652</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1512491.12596</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>2269035.142</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>562938.4825500001</v>
+        <v>562938.48255</v>
       </c>
       <c r="D20" s="47" t="n">
         <v>392327.49368</v>
@@ -1544,34 +1525,39 @@
         <v>571150.5140399999</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>583513.29794</v>
+        <v>583578.27071</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>703347.6581999999</v>
+        <v>704901.7522099999</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>812106.80632</v>
+        <v>812153.3129500001</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>916167.6313900001</v>
+        <v>916732.2771300001</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>996101.2816300001</v>
+        <v>996631.9676800001</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>1023929.10658</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1152593.9011</v>
+        <v>1155009.66417</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1412168.1533</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1421813.99163</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1320518</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>77.88479000000001</v>
@@ -1606,11 +1592,16 @@
       <c r="M21" s="48" t="n">
         <v>637.8284400000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>2701.332</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>314418.40391</v>
@@ -1631,25 +1622,30 @@
         <v>293183.18015</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>293334.98806</v>
+        <v>293419.63015</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>319301.76397</v>
+        <v>319461.917</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>338216.66336</v>
+        <v>338216.6633599999</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>360238.78413</v>
+        <v>362031.08944</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>463138.77919</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>465419.3165200001</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>187953.519</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>248442.19385</v>
@@ -1661,34 +1657,39 @@
         <v>393271.2562</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>371306.13418</v>
+        <v>371371.10695</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>438624.72884</v>
+        <v>440178.82285</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>516632.52576</v>
+        <v>516679.0323900001</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>620902.5295500001</v>
+        <v>621382.5332000001</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>676799.51766</v>
+        <v>677170.0506800001</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>685628.80027</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>792345.5528799999</v>
+        <v>792969.0106400001</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>948391.54567</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>955756.84667</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1129863.149</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>69062.98131</v>
@@ -1700,34 +1701,39 @@
         <v>104490.85989</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>188234.80251</v>
+        <v>188169.82974</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>178260.21487</v>
+        <v>179719.65324</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>112938.19177</v>
+        <v>112928.82563</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>161522.11279</v>
+        <v>161341.72888</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>5137.205559999999</v>
+        <v>6346.81391</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>264348.81658</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>188786.45612</v>
+        <v>187997.78383</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>93886.94322</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>90677.13432999999</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>948517.142</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>97621.73824999999</v>
@@ -1739,34 +1745,39 @@
         <v>100620.96216</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>107798.38699</v>
+        <v>108122.00192</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>170272.49693</v>
+        <v>172747.06418</v>
       </c>
       <c r="H25" s="47" t="n">
         <v>179360.60407</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>263862.37406</v>
+        <v>263913.95445</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>324424.25369</v>
+        <v>324508.8055</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>557938.25511</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>734178.86034</v>
+        <v>734183.85649</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>526441.64894</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>526643.40356</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>809131.999</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0.17523</v>
@@ -1793,7 +1804,7 @@
         <v>122.82098</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>588.3790900000001</v>
+        <v>588.37909</v>
       </c>
       <c r="L26" s="48" t="n">
         <v>0</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>12.55862</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>33.423</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>30.106</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>12866.90227</v>
@@ -1859,31 +1880,36 @@
         <v>18222.28924</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>11776.75334</v>
+        <v>11788.52997</v>
       </c>
       <c r="H28" s="48" t="n">
         <v>18391.87401</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>26444.65004</v>
+        <v>26474.08422</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>38404.33865000001</v>
+        <v>38404.81574</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>48821.68942</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>91925.15333</v>
+        <v>91925.15332999999</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>78055.65243999998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>78109.519</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>90971.682</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>8.21833</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>39.45377</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>377.578</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>2834.25359</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>12077.58282</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>9050.266</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>5759.64313</v>
@@ -1996,11 +2032,16 @@
       <c r="M31" s="48" t="n">
         <v>1726.71918</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>5711.275</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>24662.93588</v>
@@ -2012,16 +2053,16 @@
         <v>35541.15904</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>16560.24546</v>
+        <v>16883.86039</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>56361.2362</v>
+        <v>58824.02682</v>
       </c>
       <c r="H32" s="48" t="n">
         <v>31528.23916</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>61168.49059</v>
+        <v>61171.61414</v>
       </c>
       <c r="J32" s="48" t="n">
         <v>93672.81741</v>
@@ -2030,16 +2071,21 @@
         <v>336059.94722</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>422267.79865</v>
+        <v>422269.36853</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>232370.43584</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>232491.25142</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>416429.111</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>21.59168</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>2.91014</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>51486.69968</v>
@@ -2138,25 +2194,30 @@
         <v>89964.72131000001</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>148356.41194</v>
+        <v>148375.4346</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>155409.49578</v>
+        <v>155493.5705</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>163528.88908</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>209812.70694</v>
+        <v>209816.13321</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>202137.65459</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>202164.72707</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>286528.558</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>40857.07112</v>
@@ -2168,34 +2229,39 @@
         <v>51011.10456000001</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>45069.27087</v>
+        <v>45205.99639999999</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>86515.39436000002</v>
+        <v>90099.13458999999</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>80295.10991000001</v>
+        <v>80295.10991</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>122450.47364</v>
+        <v>122451.19102</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>148687.6513</v>
+        <v>148764.71292</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>411995.74986</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>575648.0919999999</v>
+        <v>575656.45095</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>335104.87952</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>335212.99895</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>582569.151</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>235.36253</v>
@@ -2225,16 +2291,21 @@
         <v>362.72375</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>804.60392</v>
+        <v>804.60714</v>
       </c>
       <c r="M37" s="48" t="n">
         <v>805.7590399999999</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>2111.035</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>9822.5015</v>
@@ -2249,7 +2320,7 @@
         <v>14614.3142</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>11871.16644</v>
+        <v>12029.50958</v>
       </c>
       <c r="H38" s="48" t="n">
         <v>11802.09447</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>48287.89871</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>39854.914</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>1.7086</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>2013.46754</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>4624.899</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>25402.2733</v>
@@ -2324,16 +2405,16 @@
         <v>33440.45177</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>16845.14061</v>
+        <v>16981.86614</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>56570.20362</v>
+        <v>59995.60070999999</v>
       </c>
       <c r="H40" s="48" t="n">
         <v>45604.54375</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>59420.92802000001</v>
+        <v>59421.41877</v>
       </c>
       <c r="J40" s="48" t="n">
         <v>84618.21203</v>
@@ -2342,16 +2423,21 @@
         <v>359553.36847</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>509173.73418</v>
+        <v>509182.08977</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>259388.64032</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>259492.79935</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>500463.989</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>465.34329</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>3e-05</v>
@@ -2425,20 +2516,25 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>23.756</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>4929.88187</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>6330.108069999999</v>
+        <v>6330.10807</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>9410.871309999999</v>
+        <v>9410.87131</v>
       </c>
       <c r="F43" s="48" t="n">
         <v>13242.09555</v>
@@ -2450,25 +2546,30 @@
         <v>21885.79875</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>45315.59586000001</v>
+        <v>45315.82249</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>36897.86588</v>
+        <v>36974.9275</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>30353.49776</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>35255.96795</v>
+        <v>35255.96808999999</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>24609.11391</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>24613.07431</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>35490.558</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>20291.84471</v>
@@ -2480,34 +2581,39 @@
         <v>26970.3416</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>23283.85566</v>
+        <v>23285.13654</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>21775.15188</v>
+        <v>21783.01318</v>
       </c>
       <c r="H44" s="47" t="n">
         <v>17566.09176</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>19721.74228</v>
+        <v>19752.92314</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>19352.20107</v>
+        <v>19563.63072</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>27461.35633999999</v>
+        <v>27461.35634</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>67574.16432000001</v>
+        <v>67574.96706</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>72244.06325000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>72267.75732999999</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>94622.98</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>9645.27642</v>
@@ -2519,40 +2625,45 @@
         <v>21974.65176</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>21788.65546</v>
+        <v>21789.93634</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>12238.41659</v>
+        <v>12246.27789</v>
       </c>
       <c r="H45" s="48" t="n">
         <v>10675.27459</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>15237.0008</v>
+        <v>15268.18166</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>15651.17296</v>
+        <v>15862.60261</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>25456.1656</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>65966.30174</v>
+        <v>65967.10447999999</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>72189.40609</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>72213.10016999999</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>87358.79300000001</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>10646.56829</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>8688.312849999998</v>
+        <v>8688.31285</v>
       </c>
       <c r="E46" s="48" t="n">
         <v>4995.68984</v>
@@ -2581,11 +2692,16 @@
       <c r="M46" s="48" t="n">
         <v>54.65716</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>7264.187</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>105535.80373</v>
@@ -2597,34 +2713,39 @@
         <v>127130.37589</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>227680.06297</v>
+        <v>227800.69872</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>240242.16556</v>
+        <v>240584.56965</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>194437.59417</v>
+        <v>194428.22803</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>283212.27093</v>
+        <v>283051.56917</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>161521.60688</v>
+        <v>162527.27577</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>382829.96549</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>279743.06014</v>
+        <v>278950.22231</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>212979.64939</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>209839.78161</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>1080457.01</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>9768.279919999999</v>
@@ -2639,31 +2760,36 @@
         <v>27212.86476</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>20951.74335</v>
+        <v>20968.18254</v>
       </c>
       <c r="H48" s="47" t="n">
         <v>35472.04638</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>43951.13131</v>
+        <v>43979.39573999999</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>26116.28453</v>
+        <v>26342.22265</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>57291.20932</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>45657.32734</v>
+        <v>45657.80824</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>45811.76298000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>45862.10077</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>70041.74400000001</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>2390.53269</v>
@@ -2698,14 +2824,19 @@
       <c r="M49" s="48" t="n">
         <v>3519.32586</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>12421.917</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>7377.747230000001</v>
+        <v>7377.74723</v>
       </c>
       <c r="D50" s="48" t="n">
         <v>11654.19139</v>
@@ -2717,31 +2848,36 @@
         <v>25472.4097</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>20085.74423</v>
+        <v>20102.18342</v>
       </c>
       <c r="H50" s="48" t="n">
         <v>34795.44734000001</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>42425.6955</v>
+        <v>42453.95992999999</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>23751.41735</v>
+        <v>23977.35547</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>51546.33751</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>34389.38451999999</v>
+        <v>34389.86541999999</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>42292.43712</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>42342.77490999999</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>57619.827</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>6881.072539999999</v>
@@ -2753,34 +2889,39 @@
         <v>164812.84871</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>26083.40683</v>
+        <v>26083.41933</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>71611.39229999999</v>
+        <v>71691.90203</v>
       </c>
       <c r="H51" s="47" t="n">
         <v>28160.88694</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>29022.6533</v>
+        <v>29149.84938</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>30712.10307</v>
+        <v>31322.30608</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>35204.24203</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>38053.55768000001</v>
+        <v>38078.86870000001</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>19802.94452</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>20339.566</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>110967.625</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>9.71735</v>
@@ -2813,13 +2954,18 @@
         <v>0</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>4.00204</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>26.08104</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>115.33</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>531.81034</v>
@@ -2828,25 +2974,25 @@
         <v>1103.73388</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>6375.46527</v>
+        <v>6375.465269999999</v>
       </c>
       <c r="F53" s="48" t="n">
         <v>3150.56521</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>1812.53002</v>
+        <v>1816.19421</v>
       </c>
       <c r="H53" s="48" t="n">
         <v>3652.56856</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>4702.10484</v>
+        <v>4702.104840000001</v>
       </c>
       <c r="J53" s="48" t="n">
         <v>7283.46295</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>7319.69548</v>
+        <v>7319.695479999999</v>
       </c>
       <c r="L53" s="48" t="n">
         <v>14721.00242</v>
@@ -2854,14 +3000,19 @@
       <c r="M53" s="48" t="n">
         <v>4268.31847</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>7100.044</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>6339.54485</v>
+        <v>6339.544849999999</v>
       </c>
       <c r="D54" s="48" t="n">
         <v>8316.7263</v>
@@ -2870,34 +3021,39 @@
         <v>158434.68358</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>22932.44590999999</v>
+        <v>22932.45841</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>69731.97051</v>
+        <v>69808.81605000001</v>
       </c>
       <c r="H54" s="48" t="n">
         <v>24505.12072</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>24015.00993</v>
+        <v>24142.20601</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>23118.71017</v>
+        <v>23728.91318</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>27884.54655</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>23332.55526</v>
+        <v>23357.86628</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>15530.62401</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>16045.16649</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>103752.251</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>108423.01111</v>
@@ -2909,34 +3065,39 @@
         <v>-20849.04794</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>228809.5209</v>
+        <v>228930.14415</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>189582.51661</v>
+        <v>189860.85016</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>201748.75361</v>
+        <v>201739.38747</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>298140.74894</v>
+        <v>297881.11553</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>156925.78834</v>
+        <v>157547.19234</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>404916.93278</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>287346.8297999999</v>
+        <v>286529.16185</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>238988.46785</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>235362.31638</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>1039531.129</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>27707.85126</v>
@@ -2957,25 +3118,30 @@
         <v>52361.25379</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>68121.27034</v>
+        <v>68129.09655</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>54784.78567</v>
+        <v>54999.04646000001</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>83770.96139999999</v>
+        <v>83770.9614</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>99987.75810000001</v>
+        <v>100021.45788</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>77137.76987</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>77168.15661000002</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>291069.689</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>80715.15985</v>
@@ -2987,31 +3153,34 @@
         <v>-50981.56662</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>176763.07589</v>
+        <v>176883.69914</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>134027.52018</v>
+        <v>134305.85373</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>149387.49982</v>
+        <v>149378.13368</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>230019.4786</v>
+        <v>229752.01898</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>102141.00267</v>
+        <v>102548.14588</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>321145.97138</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>187359.0717</v>
+        <v>186507.70397</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>161850.69798</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>158194.15977</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>748461.4399999999</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>289</v>
@@ -3041,31 +3213,34 @@
         <v>359</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>673</v>
+        <v>679</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>723</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>721</v>
+        <v>768</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>854</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>